--- a/docss/trend/spain/E_cardio.xlsx
+++ b/docss/trend/spain/E_cardio.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16425" windowHeight="12195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ej9_Afectacion_Comarcas" sheetId="1" r:id="rId1"/>
     <sheet name="Tasa_anual_Ej9_Afectacion" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -12809,7 +12809,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12833,13 +12833,13 @@
         <v>1999</v>
       </c>
       <c r="B2">
-        <v>6.0261622051122198E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C2">
-        <v>5.9731870007367398E-2</v>
+        <v>0.06</v>
       </c>
       <c r="D2">
-        <v>5.96070857013897E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -12847,13 +12847,13 @@
         <v>2000</v>
       </c>
       <c r="B3">
-        <v>0.10386608785656</v>
+        <v>0.104</v>
       </c>
       <c r="C3">
-        <v>0.10122661414384999</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="D3">
-        <v>0.105613095155833</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -12861,13 +12861,13 @@
         <v>2001</v>
       </c>
       <c r="B4">
-        <v>5.0556892999999999E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="C4">
-        <v>6.9162598000000006E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="D4">
-        <v>3.0027418E-2</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -12875,13 +12875,13 @@
         <v>2002</v>
       </c>
       <c r="B5">
-        <v>4.8574860390568901E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="C5">
-        <v>4.70375888628142E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="D5">
-        <v>4.9921908962641301E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -12889,13 +12889,13 @@
         <v>2003</v>
       </c>
       <c r="B6">
-        <v>6.3709371177678401E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="C6">
-        <v>7.2780515678494098E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="D6">
-        <v>5.2126016112949099E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -12903,13 +12903,13 @@
         <v>2004</v>
       </c>
       <c r="B7">
-        <v>6.5511070209484198E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="C7">
-        <v>6.9810323417460907E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D7">
-        <v>6.1394055639780398E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -12917,13 +12917,13 @@
         <v>2005</v>
       </c>
       <c r="B8">
-        <v>6.9060799839890399E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="C8">
-        <v>7.2065437770889404E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D8">
-        <v>6.4601856668309698E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -12931,13 +12931,13 @@
         <v>2006</v>
       </c>
       <c r="B9">
-        <v>6.29920904616737E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="C9">
-        <v>6.5228723981314504E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="D9">
-        <v>6.2503340682679695E-2</v>
+        <v>6.3E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -12945,13 +12945,13 @@
         <v>2007</v>
       </c>
       <c r="B10">
-        <v>6.6319905879204902E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="C10">
-        <v>8.8783281235218295E-2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="D10">
-        <v>4.9533110407389697E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -12959,13 +12959,13 @@
         <v>2008</v>
       </c>
       <c r="B11">
-        <v>6.5330832537140796E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C11">
-        <v>6.2101246778022201E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="D11">
-        <v>6.5804150860794899E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -12973,13 +12973,13 @@
         <v>2009</v>
       </c>
       <c r="B12">
-        <v>4.0064148727207198E-2</v>
+        <v>0.04</v>
       </c>
       <c r="C12">
-        <v>6.3485927308769202E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="D12">
-        <v>2.2298691981319299E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -12987,13 +12987,13 @@
         <v>2010</v>
       </c>
       <c r="B13">
-        <v>5.3985620263549298E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="C13">
-        <v>5.8003451164349601E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="D13">
-        <v>5.5488597333402903E-2</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -13001,13 +13001,13 @@
         <v>2011</v>
       </c>
       <c r="B14">
-        <v>4.9564081714270201E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C14">
-        <v>6.8607834169954501E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="D14">
-        <v>3.3440120410714903E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -13015,13 +13015,13 @@
         <v>2012</v>
       </c>
       <c r="B15">
-        <v>4.2072445035128102E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="C15">
-        <v>5.1076582140296402E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="D15">
-        <v>3.6531517307553503E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -13029,13 +13029,13 @@
         <v>2013</v>
       </c>
       <c r="B16">
-        <v>3.4892032718543499E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="C16">
-        <v>4.6787235180733702E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="D16">
-        <v>2.6747521475343601E-2</v>
+        <v>2.7E-2</v>
       </c>
     </row>
   </sheetData>
